--- a/words.xlsx
+++ b/words.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65">
   <si>
     <t>单词</t>
   </si>
@@ -185,6 +185,30 @@
   </si>
   <si>
     <t>隔离和机密性</t>
+  </si>
+  <si>
+    <t>subscribe</t>
+  </si>
+  <si>
+    <t>订阅</t>
+  </si>
+  <si>
+    <t>authenticates and authorizes</t>
+  </si>
+  <si>
+    <t>鉴权和授权</t>
+  </si>
+  <si>
+    <t>multi-national corporation</t>
+  </si>
+  <si>
+    <t>跨国公司</t>
+  </si>
+  <si>
+    <t>Consortium</t>
+  </si>
+  <si>
+    <t>联盟</t>
   </si>
 </sst>
 </file>
@@ -193,9 +217,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -208,9 +232,122 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -222,129 +359,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -359,13 +383,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -377,37 +449,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -419,31 +521,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -455,7 +533,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -467,79 +551,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -554,16 +578,27 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -592,26 +627,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -634,19 +660,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -656,10 +680,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -668,140 +692,143 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1125,12 +1152,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B28" sqref="B28"/>
+      <selection pane="bottomLeft" activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
@@ -1368,6 +1395,38 @@
         <v>56</v>
       </c>
     </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>57</v>
+      </c>
+      <c r="B29" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>59</v>
+      </c>
+      <c r="B30" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>61</v>
+      </c>
+      <c r="B31" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B32" t="s">
+        <v>64</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/words.xlsx
+++ b/words.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75">
   <si>
     <t>单词</t>
   </si>
@@ -209,6 +209,36 @@
   </si>
   <si>
     <t>联盟</t>
+  </si>
+  <si>
+    <t>confidentiality, resiliency, flexibility, and scalability</t>
+  </si>
+  <si>
+    <t>机密性、弹性、灵活性和可伸缩性</t>
+  </si>
+  <si>
+    <t xml:space="preserve">complexity and intricacies </t>
+  </si>
+  <si>
+    <t>错综复杂性</t>
+  </si>
+  <si>
+    <t>decentralization and collaboration</t>
+  </si>
+  <si>
+    <t>分散和集权</t>
+  </si>
+  <si>
+    <t>a single point of failure</t>
+  </si>
+  <si>
+    <t>单点故障</t>
+  </si>
+  <si>
+    <t>coordinate</t>
+  </si>
+  <si>
+    <t>协调</t>
   </si>
 </sst>
 </file>
@@ -216,10 +246,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -230,106 +260,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -343,6 +290,42 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -351,6 +334,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -359,8 +364,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -368,7 +374,31 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -383,13 +413,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -401,7 +533,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -413,157 +563,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -574,6 +604,41 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -594,11 +659,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -608,21 +671,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -656,34 +704,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -692,34 +722,37 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -728,107 +761,101 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1152,18 +1179,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A35" sqref="A35"/>
+      <selection pane="bottomLeft" activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="33.125" customWidth="1"/>
-    <col min="2" max="2" width="25.875" customWidth="1"/>
+    <col min="1" max="1" width="41" customWidth="1"/>
+    <col min="2" max="2" width="35.25" customWidth="1"/>
     <col min="3" max="3" width="57.25" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1420,11 +1447,51 @@
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B32" t="s">
         <v>64</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>65</v>
+      </c>
+      <c r="B33" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>67</v>
+      </c>
+      <c r="B34" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>69</v>
+      </c>
+      <c r="B35" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>71</v>
+      </c>
+      <c r="B36" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>73</v>
+      </c>
+      <c r="B37" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/words.xlsx
+++ b/words.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28770" windowHeight="12180"/>
+    <workbookView windowWidth="15180" windowHeight="11715"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,12 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91">
   <si>
     <t>单词</t>
   </si>
   <si>
-    <t>大意</t>
+    <t>promise of 承诺</t>
   </si>
   <si>
     <t>描述</t>
@@ -239,6 +239,54 @@
   </si>
   <si>
     <t>协调</t>
+  </si>
+  <si>
+    <t>host</t>
+  </si>
+  <si>
+    <t>托管</t>
+  </si>
+  <si>
+    <t xml:space="preserve">intellectual property rights </t>
+  </si>
+  <si>
+    <t>知识产权</t>
+  </si>
+  <si>
+    <t>thoroughly</t>
+  </si>
+  <si>
+    <t>深入</t>
+  </si>
+  <si>
+    <t>simultaneously</t>
+  </si>
+  <si>
+    <t>同时</t>
+  </si>
+  <si>
+    <t xml:space="preserve">woven into  </t>
+  </si>
+  <si>
+    <t>编入</t>
+  </si>
+  <si>
+    <t>promise of</t>
+  </si>
+  <si>
+    <t>承诺</t>
+  </si>
+  <si>
+    <t>comprehensive</t>
+  </si>
+  <si>
+    <t>全面的</t>
+  </si>
+  <si>
+    <t>tamper-resistant</t>
+  </si>
+  <si>
+    <t>防篡改</t>
   </si>
 </sst>
 </file>
@@ -852,10 +900,13 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1179,12 +1230,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:C45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B37" sqref="B37"/>
+      <selection pane="bottomLeft" activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
@@ -1494,6 +1545,70 @@
         <v>74</v>
       </c>
     </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>75</v>
+      </c>
+      <c r="B38" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>77</v>
+      </c>
+      <c r="B39" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>79</v>
+      </c>
+      <c r="B40" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>81</v>
+      </c>
+      <c r="B41" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B42" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>85</v>
+      </c>
+      <c r="B43" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>87</v>
+      </c>
+      <c r="B44" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>89</v>
+      </c>
+      <c r="B45" t="s">
+        <v>90</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/words.xlsx
+++ b/words.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15180" windowHeight="11715"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109">
   <si>
     <t>单词</t>
   </si>
@@ -287,6 +287,60 @@
   </si>
   <si>
     <t>防篡改</t>
+  </si>
+  <si>
+    <t>intended for</t>
+  </si>
+  <si>
+    <t>用于</t>
+  </si>
+  <si>
+    <t>encourage</t>
+  </si>
+  <si>
+    <t>鼓励</t>
+  </si>
+  <si>
+    <t>throughput</t>
+  </si>
+  <si>
+    <t>流量</t>
+  </si>
+  <si>
+    <t>stability</t>
+  </si>
+  <si>
+    <t>稳定性</t>
+  </si>
+  <si>
+    <t>resilience</t>
+  </si>
+  <si>
+    <t>弹性</t>
+  </si>
+  <si>
+    <t>represent</t>
+  </si>
+  <si>
+    <t>代表</t>
+  </si>
+  <si>
+    <t>mandatory</t>
+  </si>
+  <si>
+    <t>强制</t>
+  </si>
+  <si>
+    <t>specifying</t>
+  </si>
+  <si>
+    <t>指定</t>
+  </si>
+  <si>
+    <t>appropriate</t>
+  </si>
+  <si>
+    <t>适用</t>
   </si>
 </sst>
 </file>
@@ -294,10 +348,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -317,6 +371,89 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -345,81 +482,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -443,14 +505,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -461,6 +515,150 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -473,97 +671,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -575,19 +683,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -599,49 +695,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -652,6 +706,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -673,8 +751,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -686,30 +779,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -737,31 +806,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -770,143 +824,140 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1230,12 +1281,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C45"/>
+  <dimension ref="A1:C55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B46" sqref="B46"/>
+      <selection pane="bottomLeft" activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
@@ -1578,7 +1629,7 @@
       </c>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="3" t="s">
+      <c r="A42" s="2" t="s">
         <v>83</v>
       </c>
       <c r="B42" t="s">
@@ -1607,6 +1658,86 @@
       </c>
       <c r="B45" t="s">
         <v>90</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>91</v>
+      </c>
+      <c r="B46" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>93</v>
+      </c>
+      <c r="B47" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>95</v>
+      </c>
+      <c r="B48" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>97</v>
+      </c>
+      <c r="B49" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>99</v>
+      </c>
+      <c r="B50" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>27</v>
+      </c>
+      <c r="B51" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>101</v>
+      </c>
+      <c r="B52" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>103</v>
+      </c>
+      <c r="B53" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>105</v>
+      </c>
+      <c r="B54" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
+        <v>107</v>
+      </c>
+      <c r="B55" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
